--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Desktop\Solver_Minds\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solver_Minds_27_03_2024\Solver_Minds\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -152,54 +152,12 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Nil</t>
-  </si>
-  <si>
     <t>trackdfectuser1</t>
   </si>
   <si>
     <t>trackDfect@2h7s4</t>
   </si>
   <si>
-    <t>Table_numbers</t>
-  </si>
-  <si>
-    <t>TS_Number_1</t>
-  </si>
-  <si>
-    <t>TS_Number_2</t>
-  </si>
-  <si>
-    <t>TS_Number_3</t>
-  </si>
-  <si>
-    <t>TS_Number_4</t>
-  </si>
-  <si>
-    <t>TS_Number_5</t>
-  </si>
-  <si>
-    <t>TS_Number_6</t>
-  </si>
-  <si>
-    <t>190184</t>
-  </si>
-  <si>
-    <t>190186</t>
-  </si>
-  <si>
-    <t>190188</t>
-  </si>
-  <si>
-    <t>190384</t>
-  </si>
-  <si>
-    <t>190386</t>
-  </si>
-  <si>
-    <t>190388</t>
-  </si>
-  <si>
     <t>DSW_GM</t>
   </si>
   <si>
@@ -261,13 +219,160 @@
   </si>
   <si>
     <t>TIR TD SAS 2m 3m DSW TEST CASE 29063</t>
+  </si>
+  <si>
+    <t>OSK TEST FILE MASTER RESULT PLAN</t>
+  </si>
+  <si>
+    <t>OSK TEST FILE MASTER BASE PLAN</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>OSK - OSAKA</t>
+  </si>
+  <si>
+    <t>Service_Code</t>
+  </si>
+  <si>
+    <t>BoundFrom</t>
+  </si>
+  <si>
+    <t>BoundTo</t>
+  </si>
+  <si>
+    <t>PortCode_1</t>
+  </si>
+  <si>
+    <t>PortCode_2</t>
+  </si>
+  <si>
+    <t>ISO_code</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>INMAA</t>
+  </si>
+  <si>
+    <t>INNSA</t>
+  </si>
+  <si>
+    <t>45G1</t>
+  </si>
+  <si>
+    <t>JYH - AL JMELIYAH</t>
+  </si>
+  <si>
+    <t>Voyage_from_4</t>
+  </si>
+  <si>
+    <t>Voyage_to_4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AZO - SEASPAN AMAZON</t>
+  </si>
+  <si>
+    <t>SPX - SOUTHAMPTON EXPRESS</t>
+  </si>
+  <si>
+    <t>SPX BO MASTER FILE</t>
+  </si>
+  <si>
+    <t>TD SPX BO TEST CASE</t>
+  </si>
+  <si>
+    <t>VWR</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>BasePlanFile</t>
+  </si>
+  <si>
+    <t>ResultPlanFile</t>
+  </si>
+  <si>
+    <t>DEL MASTER PATTERN Result 10</t>
+  </si>
+  <si>
+    <t>DEL MASTER PATTERN Base 10</t>
+  </si>
+  <si>
+    <t>PlanTemplate</t>
+  </si>
+  <si>
+    <t>Lashing</t>
+  </si>
+  <si>
+    <t>AZO MASTER CLICK RESULT</t>
+  </si>
+  <si>
+    <t>AZO MASTER CLICK BASE TEST CASE</t>
+  </si>
+  <si>
+    <t>VWRPlanFile</t>
+  </si>
+  <si>
+    <t>DSW_GM1</t>
+  </si>
+  <si>
+    <t>Weight1</t>
+  </si>
+  <si>
+    <t>Weight2</t>
+  </si>
+  <si>
+    <t>Weight3</t>
+  </si>
+  <si>
+    <t>Weight4</t>
+  </si>
+  <si>
+    <t>Weight5</t>
+  </si>
+  <si>
+    <t>11 AZO test VWR</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +426,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +471,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -383,12 +507,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -425,6 +592,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,9 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -751,8 +935,8 @@
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
@@ -953,14 +1137,12 @@
       <c r="AM2" s="3"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -999,30 +1181,28 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
     </row>
-    <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="3"/>
@@ -1041,42 +1221,40 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1107,76 +1285,84 @@
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
+    <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
     </row>
-    <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1203,76 +1389,84 @@
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
     </row>
-    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
     </row>
     <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1301,19 +1495,23 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1348,19 +1546,23 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
     </row>
-    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1397,20 +1599,26 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1444,20 +1652,24 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
     </row>
-    <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="10"/>
@@ -1493,26 +1705,44 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1540,24 +1770,38 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
     </row>
-    <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1585,12 +1829,349 @@
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
     </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+    </row>
+    <row r="21" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7">
       <formula1>"Not certified,Certified,Expert,Master"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:G15">
+      <formula1>"W,E,S,N"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>